--- a/biology/Zoologie/Euphydryas_gillettii/Euphydryas_gillettii.xlsx
+++ b/biology/Zoologie/Euphydryas_gillettii/Euphydryas_gillettii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas gilletti
 Euphydryas gilletti est un lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Nymphalinae et au genre Euphydryas.
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphydryas gilletti a été nommé par Barnes en 1897.
-Synonymes : Lemonias gillettei ; Dyar, 1903 ; Hypodryas gillettii ; Higgins, 1981[1].
-Noms vernaculaires
-Euphydryas gilletti se nomme en anglais Gillette's Checkerspot[1].
+Synonymes : Lemonias gillettei ; Dyar, 1903 ; Hypodryas gillettii ; Higgins, 1981.
 </t>
         </is>
       </c>
@@ -543,15 +555,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euphydryas gilletti est un papillon marron orné d'une bande submarginale de damiers rouge orangé, puis aux antérieures de deux lignes incomplètes de damiers blancs et une ligne de damiers orange, alors qu'aux postérieures seuls quelques damiers blancs complètent l'ornementation de la bande submarginale de damiers rouge orangé. le revers présente la même ornementation en plus clair.
-Il est de taille moyenne avec une envergure qui varie de 38 à 48 mm[2],[3].
-Chenille
-Elle est jaune ornée d'une bande jaune citron sur le dos et de bandes blanches sur les flancs[3].
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas gilletti se nomme en anglais Gillette's Checkerspot.
 </t>
         </is>
       </c>
@@ -577,16 +592,15 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-L'imago vole en une génération de juin à août[4].
-La chenille hiberne au quatrième stade, deux années dans les zones de haute altitude, au premier puis au quatrième stade[2].
-Plantes hôtes
-Les plantes hôtes de la chenille sont des Lonicera involucrata, Symphoricarpos albuset Veronica wormskjoldii[1],[4].
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphydryas gilletti est un papillon marron orné d'une bande submarginale de damiers rouge orangé, puis aux antérieures de deux lignes incomplètes de damiers blancs et une ligne de damiers orange, alors qu'aux postérieures seuls quelques damiers blancs complètent l'ornementation de la bande submarginale de damiers rouge orangé. le revers présente la même ornementation en plus clair.
+Il est de taille moyenne avec une envergure qui varie de 38 à 48 mm,.
 </t>
         </is>
       </c>
@@ -612,16 +626,200 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est jaune ornée d'une bande jaune citron sur le dos et de bandes blanches sur les flancs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'imago vole en une génération de juin à août.
+La chenille hiberne au quatrième stade, deux années dans les zones de haute altitude, au premier puis au quatrième stade.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de la chenille sont des Lonicera involucrata, Symphoricarpos albuset Veronica wormskjoldii,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Amérique du Nord, au Canada dans le sud-ouest de l'Alberta, et aux USA dans l'est de l'Idaho, l'ouest du Montana et du Wyoming[2].
-Biotope
-Il réside dans les prés humides[3].
-Protection
-Cette espèce, rare et localisée est protégée[2].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Amérique du Nord, au Canada dans le sud-ouest de l'Alberta, et aux USA dans l'est de l'Idaho, l'ouest du Montana et du Wyoming.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prés humides.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphydryas_gillettii</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce, rare et localisée est protégée.
 </t>
         </is>
       </c>
